--- a/3. RKPDESA/6. Usulan Dusun.xlsx
+++ b/3. RKPDESA/6. Usulan Dusun.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. DOKUMEN\1. DESA\1. KAUR PERENCANAAN DESA\2. RKPDes\2020 (Masih Proses)\3. RKPDESA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE95BE5-2389-744B-8D59-F31AD94CD6EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DUSUN I" sheetId="1" r:id="rId1"/>
     <sheet name="DUSUN II" sheetId="5" r:id="rId2"/>
     <sheet name="DUSUN III" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="104">
   <si>
     <t>NO</t>
   </si>
@@ -330,12 +341,15 @@
   </si>
   <si>
     <t>UPOYO</t>
+  </si>
+  <si>
+    <t>perubahan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -445,23 +459,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,6 +474,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,6 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,7 +519,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -577,6 +594,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -612,6 +646,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,39 +838,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection sqref="A1:J44"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.37890625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="1.4765625" customWidth="1"/>
+    <col min="4" max="4" width="21.65625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -830,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -841,7 +892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -852,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -863,38 +914,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
@@ -905,15 +956,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>31</v>
       </c>
@@ -933,15 +984,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
@@ -961,15 +1012,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
@@ -989,15 +1040,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1017,15 +1068,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1045,15 +1096,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1073,15 +1124,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1101,15 +1152,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1129,15 +1180,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1157,15 +1208,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1185,15 +1236,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1213,15 +1264,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1241,15 +1292,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
@@ -1269,15 +1320,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1297,15 +1348,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1325,15 +1376,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>16</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1353,15 +1404,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
@@ -1381,15 +1432,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1" t="s">
         <v>34</v>
       </c>
@@ -1409,15 +1460,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1437,15 +1488,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
@@ -1465,15 +1516,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>21</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
@@ -1487,15 +1538,15 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1515,15 +1566,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1" t="s">
         <v>33</v>
       </c>
@@ -1543,15 +1594,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1571,158 +1622,205 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="H35" s="6" t="s">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="H35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="H39" s="11" t="s">
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="H39" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="H8:J8"/>
@@ -1739,51 +1837,6 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="93" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1791,7 +1844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1801,29 +1854,29 @@
       <selection sqref="A1:J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.37890625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="1.4765625" customWidth="1"/>
+    <col min="4" max="4" width="26.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1834,7 +1887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1898,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +1909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1867,38 +1920,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1909,15 +1962,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1937,15 +1990,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1" t="s">
         <v>67</v>
       </c>
@@ -1965,15 +2018,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1993,15 +2046,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1" t="s">
         <v>67</v>
       </c>
@@ -2021,15 +2074,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1" t="s">
         <v>68</v>
       </c>
@@ -2049,15 +2102,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
@@ -2077,15 +2130,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1" t="s">
         <v>69</v>
       </c>
@@ -2105,15 +2158,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
@@ -2133,15 +2186,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2161,15 +2214,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2189,15 +2242,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
         <v>71</v>
       </c>
@@ -2217,15 +2270,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1" t="s">
         <v>71</v>
       </c>
@@ -2245,15 +2298,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1" t="s">
         <v>72</v>
       </c>
@@ -2273,15 +2326,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1" t="s">
         <v>71</v>
       </c>
@@ -2301,15 +2354,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1" t="s">
         <v>73</v>
       </c>
@@ -2329,15 +2382,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>16</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1" t="s">
         <v>74</v>
       </c>
@@ -2357,15 +2410,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2385,15 +2438,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2413,15 +2466,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1" t="s">
         <v>73</v>
       </c>
@@ -2441,15 +2494,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
@@ -2469,15 +2522,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>21</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1" t="s">
         <v>73</v>
       </c>
@@ -2497,15 +2550,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
@@ -2525,15 +2578,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1" t="s">
         <v>73</v>
       </c>
@@ -2553,15 +2606,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1" t="s">
         <v>37</v>
       </c>
@@ -2581,15 +2634,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>25</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2609,15 +2662,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>26</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,15 +2690,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>27</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1" t="s">
         <v>76</v>
       </c>
@@ -2659,15 +2712,15 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>28</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1" t="s">
         <v>76</v>
       </c>
@@ -2681,15 +2734,15 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>29</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1" t="s">
         <v>76</v>
       </c>
@@ -2703,15 +2756,15 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>30</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2725,15 +2778,15 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>31</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="3" t="s">
         <v>77</v>
       </c>
@@ -2747,15 +2800,15 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>32</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="3" t="s">
         <v>78</v>
       </c>
@@ -2769,15 +2822,15 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>33</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="3" t="s">
         <v>79</v>
       </c>
@@ -2797,11 +2850,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2809,216 +2862,158 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="H45" s="6" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="H45" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="H49" s="11" t="s">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="H49" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A8:A9"/>
@@ -3032,6 +3027,64 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="89" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3039,40 +3092,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection sqref="A1:J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="5.37890625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.4765625" customWidth="1"/>
+    <col min="4" max="4" width="26.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3083,7 +3136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -3094,7 +3147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -3105,7 +3158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -3116,22 +3169,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -3140,14 +3193,14 @@
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+    <row r="9" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
@@ -3158,15 +3211,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
         <v>90</v>
       </c>
@@ -3186,15 +3239,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
@@ -3214,15 +3267,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1" t="s">
         <v>91</v>
       </c>
@@ -3242,15 +3295,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1" t="s">
         <v>91</v>
       </c>
@@ -3270,15 +3323,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1" t="s">
         <v>92</v>
       </c>
@@ -3298,15 +3351,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1" t="s">
         <v>93</v>
       </c>
@@ -3326,15 +3379,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1" t="s">
         <v>94</v>
       </c>
@@ -3354,15 +3407,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1" t="s">
         <v>94</v>
       </c>
@@ -3382,15 +3435,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>9</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1" t="s">
         <v>95</v>
       </c>
@@ -3410,15 +3463,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1" t="s">
         <v>96</v>
       </c>
@@ -3438,15 +3491,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>11</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
@@ -3466,15 +3519,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1" t="s">
         <v>97</v>
       </c>
@@ -3494,15 +3547,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1" t="s">
         <v>98</v>
       </c>
@@ -3522,15 +3575,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>14</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1" t="s">
         <v>97</v>
       </c>
@@ -3550,15 +3603,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>15</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1" t="s">
         <v>90</v>
       </c>
@@ -3578,15 +3631,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>16</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1" t="s">
         <v>96</v>
       </c>
@@ -3606,15 +3659,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>17</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="1" t="s">
         <v>94</v>
       </c>
@@ -3634,15 +3687,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>18</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1" t="s">
         <v>94</v>
       </c>
@@ -3662,15 +3715,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>19</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1" t="s">
         <v>90</v>
       </c>
@@ -3690,15 +3743,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>20</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1" t="s">
         <v>96</v>
       </c>
@@ -3718,15 +3771,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>21</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1" t="s">
         <v>97</v>
       </c>
@@ -3746,15 +3799,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>22</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1" t="s">
         <v>90</v>
       </c>
@@ -3774,15 +3827,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>23</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1" t="s">
         <v>96</v>
       </c>
@@ -3802,15 +3855,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>24</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1" t="s">
         <v>96</v>
       </c>
@@ -3830,15 +3883,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>25</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1" t="s">
         <v>96</v>
       </c>
@@ -3858,15 +3911,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>26</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1" t="s">
         <v>90</v>
       </c>
@@ -3886,15 +3939,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>27</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1" t="s">
         <v>94</v>
       </c>
@@ -3914,15 +3967,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>28</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1" t="s">
         <v>91</v>
       </c>
@@ -3942,15 +3995,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>29</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1" t="s">
         <v>101</v>
       </c>
@@ -3966,11 +4019,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
       <c r="G39" s="1"/>
@@ -3978,186 +4031,183 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="H41" s="6" t="s">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="H41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="H45" s="11" t="s">
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="H45" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="B43:D43"/>
@@ -4172,31 +4222,34 @@
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
